--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{D7D013EF-882D-44DD-AE1D-A6DE6B85E29C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="8190" windowWidth="16380" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -90,9 +96,6 @@
     <t>Assembly Required</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>DisputedAge</t>
   </si>
   <si>
@@ -186,21 +189,27 @@
     <t>CName</t>
   </si>
   <si>
-    <t>56952431</t>
-  </si>
-  <si>
-    <t>TestOrder3</t>
-  </si>
-  <si>
     <t>test20may21@mailinator.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>LTLInsurance</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>08/11/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,7 +232,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +249,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -261,15 +320,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -286,7 +362,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -295,9 +371,12 @@
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -646,69 +725,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" spans="1:1">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -724,95 +803,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>54</v>
+      <c r="L2" s="3">
+        <v>57410875</v>
       </c>
     </row>
   </sheetData>
@@ -822,40 +909,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -864,14 +951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
@@ -888,91 +975,91 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2"/>
+    <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D7D013EF-882D-44DD-AE1D-A6DE6B85E29C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB0C9EB-543F-4348-B327-BD80C4F1C4CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
-    <sheet name="EditSecondaryInvoice" r:id="rId3" sheetId="4"/>
-    <sheet name="EditOverageDetails" r:id="rId4" sheetId="5"/>
+    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="EditSecondaryInvoice" sheetId="4" r:id="rId3"/>
+    <sheet name="EditOverageDetails" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -201,14 +201,16 @@
     <t>OrderDate</t>
   </si>
   <si>
-    <t>08/11/2021</t>
+    <t>08/16/2021</t>
+  </si>
+  <si>
+    <t>57466607</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +234,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,47 +252,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -300,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -320,70 +282,54 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -468,10 +414,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -635,21 +581,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -666,7 +612,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -718,15 +664,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -734,10 +680,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,8 +739,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -803,27 +749,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -865,7 +811,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -880,7 +826,7 @@
       <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -898,19 +844,19 @@
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="3">
-        <v>57410875</v>
+      <c r="L2" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -918,9 +864,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,13 +892,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -960,19 +906,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1059,8 +1005,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB0C9EB-543F-4348-B327-BD80C4F1C4CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ABB0C9EB-543F-4348-B327-BD80C4F1C4CF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="EditSecondaryInvoice" sheetId="4" r:id="rId3"/>
-    <sheet name="EditOverageDetails" sheetId="5" r:id="rId4"/>
+    <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
+    <sheet name="EditSecondaryInvoice" r:id="rId3" sheetId="4"/>
+    <sheet name="EditOverageDetails" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -205,12 +205,19 @@
   </si>
   <si>
     <t>57466607</t>
+  </si>
+  <si>
+    <t>08-24-2021</t>
+  </si>
+  <si>
+    <t>57535724</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +241,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +268,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -303,33 +360,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="11" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -414,10 +511,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -581,21 +678,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -612,7 +709,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -664,15 +761,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -680,10 +777,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="14.25" r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -739,8 +836,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -749,8 +846,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -758,18 +855,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.65625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,8 +908,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
+      <c r="A2" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -826,7 +923,7 @@
       <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -844,19 +941,19 @@
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>58</v>
+      <c r="L2" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -864,9 +961,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,13 +989,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -906,19 +1003,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1005,8 +1102,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ABB0C9EB-543F-4348-B327-BD80C4F1C4CF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CBC5056C-A250-484E-853F-0E35E275CF84}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Disputed</t>
   </si>
   <si>
-    <t>Service Level Update</t>
-  </si>
-  <si>
     <t>SentToCarrier_Customer_Email</t>
   </si>
   <si>
@@ -201,16 +198,13 @@
     <t>OrderDate</t>
   </si>
   <si>
-    <t>08/16/2021</t>
-  </si>
-  <si>
-    <t>57466607</t>
-  </si>
-  <si>
-    <t>08-24-2021</t>
-  </si>
-  <si>
-    <t>57535724</t>
+    <t>08-31-2021</t>
+  </si>
+  <si>
+    <t>57572175</t>
+  </si>
+  <si>
+    <t>Over Dimensions</t>
   </si>
 </sst>
 </file>
@@ -241,7 +235,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +312,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -395,6 +399,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -403,7 +414,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -413,13 +424,14 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="11" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -849,13 +861,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.65625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
@@ -866,12 +878,12 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -908,23 +920,23 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>59</v>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -941,8 +953,8 @@
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>60</v>
+      <c r="L2" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -997,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,10 +1065,10 @@
         <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1067,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -1088,16 +1100,16 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1105,5 +1117,6 @@
     <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Over Dimensions</t>
+  </si>
+  <si>
+    <t>09-29-2021</t>
+  </si>
+  <si>
+    <t>57726552</t>
+  </si>
+  <si>
+    <t>57726553</t>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +331,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -406,6 +475,48 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -414,7 +525,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -431,7 +542,13 @@
     <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="11" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="13" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="27" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -867,7 +984,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
@@ -878,7 +995,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -920,8 +1037,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>56</v>
+      <c r="A2" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -935,7 +1052,7 @@
       <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -953,8 +1070,8 @@
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>57</v>
+      <c r="L2" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CBC5056C-A250-484E-853F-0E35E275CF84}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5583B9B-A106-48F4-BB26-C9D9711E365D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
-    <sheet name="EditSecondaryInvoice" r:id="rId3" sheetId="4"/>
-    <sheet name="EditOverageDetails" r:id="rId4" sheetId="5"/>
+    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="EditSecondaryInvoice" sheetId="4" r:id="rId3"/>
+    <sheet name="EditOverageDetails" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -183,44 +183,37 @@
     <t>Customer submitted all the details.</t>
   </si>
   <si>
+    <t>test20may21@mailinator.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>Over Dimensions</t>
+  </si>
+  <si>
+    <t>10-07-2021</t>
+  </si>
+  <si>
+    <t>LTLInsurance</t>
+  </si>
+  <si>
+    <t>57762255</t>
+  </si>
+  <si>
     <t>CName</t>
   </si>
   <si>
-    <t>test20may21@mailinator.com</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>LTLInsurance</t>
-  </si>
-  <si>
-    <t>OrderDate</t>
-  </si>
-  <si>
-    <t>08-31-2021</t>
-  </si>
-  <si>
-    <t>57572175</t>
-  </si>
-  <si>
-    <t>Over Dimensions</t>
-  </si>
-  <si>
-    <t>09-29-2021</t>
-  </si>
-  <si>
-    <t>57726552</t>
-  </si>
-  <si>
-    <t>57726553</t>
+    <t>info@freightclub.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +237,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,128 +264,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -433,129 +306,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="11" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="15" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="17" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="19" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="21" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="23" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="25" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="27" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -640,10 +417,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -807,21 +584,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -838,7 +615,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -890,15 +667,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -906,10 +683,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +742,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -975,32 +752,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1037,23 +814,23 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>59</v>
+      <c r="A2" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -1070,29 +847,29 @@
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>61</v>
+      <c r="L2" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,40 +888,40 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1196,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -1217,7 +994,7 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
@@ -1231,9 +1008,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5583B9B-A106-48F4-BB26-C9D9711E365D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF9A53-2ABC-4006-89D5-A3A724214B34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validations" sheetId="2" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Admin - Missing Data</t>
   </si>
   <si>
-    <t>freightclubinfo@gmail.com</t>
-  </si>
-  <si>
     <t>AdminDocumentName</t>
   </si>
   <si>
@@ -195,19 +192,19 @@
     <t>Over Dimensions</t>
   </si>
   <si>
-    <t>10-07-2021</t>
-  </si>
-  <si>
     <t>LTLInsurance</t>
   </si>
   <si>
-    <t>57762255</t>
-  </si>
-  <si>
     <t>CName</t>
   </si>
   <si>
     <t>info@freightclub.com</t>
+  </si>
+  <si>
+    <t>10-15-2021</t>
+  </si>
+  <si>
+    <t>57794961</t>
   </si>
 </sst>
 </file>
@@ -777,7 +774,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -810,27 +807,27 @@
         <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -839,16 +836,16 @@
         <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +877,7 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +885,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -903,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,13 +926,13 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -944,25 +941,25 @@
         <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -973,37 +970,37 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF9A53-2ABC-4006-89D5-A3A724214B34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7EBF9A53-2ABC-4006-89D5-A3A724214B34}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="EditSecondaryInvoice" sheetId="4" r:id="rId3"/>
-    <sheet name="EditOverageDetails" sheetId="5" r:id="rId4"/>
+    <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
+    <sheet name="EditSecondaryInvoice" r:id="rId3" sheetId="4"/>
+    <sheet name="EditOverageDetails" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -205,12 +205,28 @@
   </si>
   <si>
     <t>57794961</t>
+  </si>
+  <si>
+    <t>10-27-2021</t>
+  </si>
+  <si>
+    <t>57904486</t>
+  </si>
+  <si>
+    <t>57904492</t>
+  </si>
+  <si>
+    <t>10-28-2021</t>
+  </si>
+  <si>
+    <t>57905035</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +250,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +277,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -303,33 +429,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="11" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="25" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -414,10 +628,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -581,21 +795,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -612,7 +826,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -664,15 +878,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -680,10 +894,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="14.25" r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -739,8 +953,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -749,8 +963,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
@@ -758,18 +972,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,8 +1025,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
+      <c r="A2" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -826,7 +1040,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="19" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -844,19 +1058,19 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>58</v>
+      <c r="L2" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -864,9 +1078,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,13 +1106,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -906,19 +1120,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1005,9 +1219,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -220,6 +220,63 @@
   </si>
   <si>
     <t>57905035</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10-29-2021</t>
+  </si>
+  <si>
+    <t>57905039</t>
+  </si>
+  <si>
+    <t>57905041</t>
+  </si>
+  <si>
+    <t>57905042</t>
+  </si>
+  <si>
+    <t>57905047</t>
+  </si>
+  <si>
+    <t>11-02-2021</t>
+  </si>
+  <si>
+    <t>58138735</t>
+  </si>
+  <si>
+    <t>58138742</t>
+  </si>
+  <si>
+    <t>58138775</t>
+  </si>
+  <si>
+    <t>58138779</t>
+  </si>
+  <si>
+    <t>58138780</t>
+  </si>
+  <si>
+    <t>58138784</t>
+  </si>
+  <si>
+    <t>58138816</t>
+  </si>
+  <si>
+    <t>58138837</t>
+  </si>
+  <si>
+    <t>58138838</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>58193236</t>
+  </si>
+  <si>
+    <t>58193243</t>
   </si>
 </sst>
 </file>
@@ -250,7 +307,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="130">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +444,518 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="128">
     <border>
       <left/>
       <right/>
@@ -506,6 +1073,363 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -514,7 +1438,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -536,7 +1460,58 @@
     <xf applyBorder="true" applyFill="true" borderId="19" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="21" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="23" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="25" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="55" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="59" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="63" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="67" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="71" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="127" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1025,8 +2000,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>62</v>
+      <c r="A2" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1040,7 +2015,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1058,8 +2033,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>63</v>
+      <c r="L2" s="69" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -277,6 +277,21 @@
   </si>
   <si>
     <t>58193243</t>
+  </si>
+  <si>
+    <t>11-12-2021</t>
+  </si>
+  <si>
+    <t>58193592</t>
+  </si>
+  <si>
+    <t>58193593</t>
+  </si>
+  <si>
+    <t>11-15-2021</t>
+  </si>
+  <si>
+    <t>58232947</t>
   </si>
 </sst>
 </file>
@@ -307,7 +322,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="130">
+  <fills count="152">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,8 +969,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="128">
+  <borders count="150">
     <border>
       <left/>
       <right/>
@@ -1430,6 +1555,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1438,7 +1640,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1511,7 +1713,18 @@
     <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="127" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="149" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2000,8 +2213,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>80</v>
+      <c r="A2" s="78" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2015,7 +2228,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="81" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2033,8 +2246,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="69" t="s">
-        <v>82</v>
+      <c r="L2" s="80" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>58232947</t>
+  </si>
+  <si>
+    <t>11-18-2021</t>
+  </si>
+  <si>
+    <t>58233442</t>
+  </si>
+  <si>
+    <t>58233443</t>
   </si>
 </sst>
 </file>
@@ -322,7 +331,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="152">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,8 +1088,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="150">
+  <borders count="164">
     <border>
       <left/>
       <right/>
@@ -1632,6 +1711,55 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1640,7 +1768,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1724,7 +1852,14 @@
     <xf applyBorder="true" applyFill="true" borderId="143" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="145" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="147" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="149" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="163" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2213,8 +2348,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>86</v>
+      <c r="A2" s="85" t="s">
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2228,7 +2363,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="88" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2246,8 +2381,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="80" t="s">
-        <v>87</v>
+      <c r="L2" s="87" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>58233443</t>
+  </si>
+  <si>
+    <t>11-25-2021</t>
+  </si>
+  <si>
+    <t>58285533</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="166">
+  <fills count="174">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,8 +1164,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="164">
+  <borders count="172">
     <border>
       <left/>
       <right/>
@@ -1760,6 +1806,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1768,7 +1842,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1859,7 +1933,11 @@
     <xf applyBorder="true" applyFill="true" borderId="157" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="163" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="171" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2348,8 +2426,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>88</v>
+      <c r="A2" s="89" t="s">
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2363,7 +2441,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="92" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2381,8 +2459,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="87" t="s">
-        <v>90</v>
+      <c r="L2" s="91" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>58285533</t>
+  </si>
+  <si>
+    <t>58285545</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="174">
+  <fills count="182">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1204,8 +1207,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="172">
+  <borders count="180">
     <border>
       <left/>
       <right/>
@@ -1834,6 +1877,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1842,7 +1913,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1937,7 +2008,11 @@
     <xf applyBorder="true" applyFill="true" borderId="165" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="167" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="169" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="171" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="179" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2426,7 +2501,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
@@ -2441,7 +2516,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="96" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2459,8 +2534,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="91" t="s">
-        <v>92</v>
+      <c r="L2" s="95" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>58285545</t>
+  </si>
+  <si>
+    <t>58285547</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="182">
+  <fills count="190">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,8 +1250,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="180">
+  <borders count="188">
     <border>
       <left/>
       <right/>
@@ -1905,6 +1948,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1913,7 +1984,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -2012,7 +2083,11 @@
     <xf applyBorder="true" applyFill="true" borderId="173" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="175" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="177" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="179" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="187" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2501,7 +2576,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="97" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
@@ -2516,7 +2591,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="100" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2534,8 +2609,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="95" t="s">
-        <v>93</v>
+      <c r="L2" s="99" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageInvoiceTestData.xlsx
+++ b/binaries/FCfiles/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>58285547</t>
+  </si>
+  <si>
+    <t>12-01-2021</t>
+  </si>
+  <si>
+    <t>58327782</t>
+  </si>
+  <si>
+    <t>58327789</t>
+  </si>
+  <si>
+    <t>58327790</t>
   </si>
 </sst>
 </file>
@@ -343,7 +355,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="190">
+  <fills count="210">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1290,8 +1302,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="188">
+  <borders count="208">
     <border>
       <left/>
       <right/>
@@ -1976,6 +2088,76 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1984,7 +2166,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -2087,7 +2269,17 @@
     <xf applyBorder="true" applyFill="true" borderId="181" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="183" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="185" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="187" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="207" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2576,8 +2768,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>91</v>
+      <c r="A2" s="107" t="s">
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2591,7 +2783,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="110" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2609,8 +2801,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="99" t="s">
-        <v>94</v>
+      <c r="L2" s="109" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
